--- a/medicine/Mort/Cimetière_de_Sanhédriah/Cimetière_de_Sanhédriah.xlsx
+++ b/medicine/Mort/Cimetière_de_Sanhédriah/Cimetière_de_Sanhédriah.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Sanh%C3%A9driah</t>
+          <t>Cimetière_de_Sanhédriah</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Sanhédriah est un cimetière juif situé dans le quartier de Sanhédriah à Jérusalem, en Israël, ouvert en 1948[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Sanhédriah est un cimetière juif situé dans le quartier de Sanhédriah à Jérusalem, en Israël, ouvert en 1948.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Sanh%C3%A9driah</t>
+          <t>Cimetière_de_Sanhédriah</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis des siècles, les enterrements juifs à Jérusalem prenaient place au cimetière juif du Mont des Oliviers.
 En janvier 1948, à cause du siège de la Jérusalem juive, le mont des Oliviers devient inaccessible, la route y menant traversant des villages arabes hostiles.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Sanh%C3%A9driah</t>
+          <t>Cimetière_de_Sanhédriah</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,38 +558,40 @@
           <t>Personnalités reposant dans ce cimetière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ben Sion Abba Chaoul (1924-1998), rosh yeshiva de la yechiva de Porat Yosef
 Yehuda Amichaï (1924-2000), poète
 Joseph Ariel (1893-1964), dirigeant sioniste russe puis diplomate israélien
-Shmuel Berenbaum (1920-2008), rosh yeshiva de la yechiva de Mir, de Brooklyn à New York[2],[3] ainsi que deux de ses fils, le rabbin Chaim Shlomo Berenbaum et le rabbin Leib Berenbaum [4] et son épouse Reichel Berenbaum (1931-2020), la fille du rabbin Avraham Kalmanowitz[5].
+Shmuel Berenbaum (1920-2008), rosh yeshiva de la yechiva de Mir, de Brooklyn à New York, ainsi que deux de ses fils, le rabbin Chaim Shlomo Berenbaum et le rabbin Leib Berenbaum  et son épouse Reichel Berenbaum (1931-2020), la fille du rabbin Avraham Kalmanowitz.
 Friedrich Simon Bodenheimer (1897-1959, entomologiste israélien
 Moshé Botschko (1916-2010), Rosh Yeshiva de la Yechiva Etz Haïm de Montreux, en Suisse
 Yerahmiel Eliyahou Botschko (1888-1956), fondateur et Rosh Yeshiva en 1927 de la Yechiva Etz Haïm, la première Yechiva en Suisse. Il est le père du rabbin Moshé Botschko.
 Yosef Burg (1909-1999), homme politique israélien
 Umberto Cassuto (1883-1960), rabbin
 Yehuda Cooperman (1930-2016), rabbin, fondateur de la Michlalah.
-Antoinette Feuerwerker (1912-2003), juriste, résistante et éducatrice française[6]
-David Feuerwerker (1912-1980), rabbin de Brive-la-Gaillarde, grand-rabbin de Lyon, rabbin à Paris et à Montréal, résistant français[6]
-Wolf Gold (1899-1956), rabbin, signataire de la déclaration d'indépendance d'Israël[7]
+Antoinette Feuerwerker (1912-2003), juriste, résistante et éducatrice française
+David Feuerwerker (1912-1980), rabbin de Brive-la-Gaillarde, grand-rabbin de Lyon, rabbin à Paris et à Montréal, résistant français
+Wolf Gold (1899-1956), rabbin, signataire de la déclaration d'indépendance d'Israël
 Yaakov Moshe Harlap (1883-1951), rabbin de Shaarei Hesed et Rosh yeshiva de la yechiva Mercaz HaRav Kook
-Yitzhak HaLevi Herzog (1888-1959), grand-rabbin Ashkenaze d'Israël[8],[9],[10]
-Max Jammer, président de l'université Bar-Ilan[11]
-Simcha Holtzberg (1924-1994), le Père des soldats blessés[12]
-Avraham Kalmanowitz (1891-1964), rosh yeshiva de la yechiva de Mir, de Brooklyn à New York[13]
-Shraga Moshe Kalmanovitz (1918-1998)[13]
-Aryeh Levin (1885-1969), connu comme le Tzadik (le « Juste ») de Jérusalem[14],[15]
-Saul Lieberman (1898-1983), talmudiste[16]
+Yitzhak HaLevi Herzog (1888-1959), grand-rabbin Ashkenaze d'Israël
+Max Jammer, président de l'université Bar-Ilan
+Simcha Holtzberg (1924-1994), le Père des soldats blessés
+Avraham Kalmanowitz (1891-1964), rosh yeshiva de la yechiva de Mir, de Brooklyn à New York
+Shraga Moshe Kalmanovitz (1918-1998)
+Aryeh Levin (1885-1969), connu comme le Tzadik (le « Juste ») de Jérusalem,
+Saul Lieberman (1898-1983), talmudiste
 Stéphane Mosès (1931-2007), philosophe, traducteur et germaniste
 Yitzhak Nebenzahl (1907-1992), contrôleur d'État de l'État d'Israël de 1948 à 1981, médiateur (ombudsman) de l'État d'Israël de 1961 à 1981, directeur de la Banque d'Israël.
-Cecil Roth (1899-1970), historien[17]
-Gershom Scholem (1897-1982), historien et philosophe[18],[19]
+Cecil Roth (1899-1970), historien
+Gershom Scholem (1897-1982), historien et philosophe,
 Reuven Shiloah (1902-1950), premier directeur du Mossad (1951-1952)
-Eleazar Sukenik (1889-1959), archéologue[20] ainsi que son épouse Chassia Sukenik
-Nissan Aharon Tikochinsky (1922-2012), Rosh yeshiva de la yechiva Etz Chaim de Jérusalem[21]
+Eleazar Sukenik (1889-1959), archéologue ainsi que son épouse Chassia Sukenik
+Nissan Aharon Tikochinsky (1922-2012), Rosh yeshiva de la yechiva Etz Chaim de Jérusalem
 Max Warschawski (1925-2006), grand-rabbin de Strasbourg et du Bas-Rhin
-Ovadia Yosef (1920-2013)[22],[23],[24],[8], grand-rabbin séfarade d'Israël, ainsi que son épouse Margalit Yosef (née Fattal) (1927-1994)</t>
+Ovadia Yosef (1920-2013) grand-rabbin séfarade d'Israël, ainsi que son épouse Margalit Yosef (née Fattal) (1927-1994)</t>
         </is>
       </c>
     </row>
